--- a/ionic_liquids/processed_data_.xlsx
+++ b/ionic_liquids/processed_data_.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SarahsAdventure/GitHub/ionic_liquids/ionic_liquids/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hbliu/Dropbox/DIRECT/ionic_liquids/ionic_liquids/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1240" windowWidth="33840" windowHeight="13400" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="-21140" windowWidth="19200" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Main sheet" sheetId="2" r:id="rId1"/>
@@ -1811,12 +1811,18 @@
       <name val="Inherit"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1835,27 +1841,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2139,8 +2149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2161,25 +2171,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2192,7 +2202,7 @@
       <c r="D2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="19" t="s">
         <v>516</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -2200,20 +2210,20 @@
       </c>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="21" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="22" t="s">
         <v>518</v>
       </c>
       <c r="F3" s="17" t="s">
@@ -2221,77 +2231,77 @@
       </c>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="23" t="s">
         <v>492</v>
       </c>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="22" t="s">
         <v>519</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="21" t="s">
         <v>493</v>
       </c>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="22" t="s">
         <v>522</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="21" t="s">
         <v>528</v>
       </c>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>5</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="21" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>513</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="17" t="s">
@@ -2299,20 +2309,20 @@
       </c>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>6</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="22" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="17" t="s">
@@ -2320,20 +2330,20 @@
       </c>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>7</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="22" t="s">
         <v>520</v>
       </c>
       <c r="F9" s="17" t="s">
@@ -2341,20 +2351,20 @@
       </c>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>8</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="21" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="22" t="s">
         <v>521</v>
       </c>
       <c r="F10" s="17" t="s">
@@ -2363,40 +2373,40 @@
       <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
+      <c r="A11" s="13">
         <v>9</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <v>10</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>508</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="22" t="s">
         <v>517</v>
       </c>
       <c r="F12" s="17" t="s">
@@ -2404,41 +2414,41 @@
       </c>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
         <v>11</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="23" t="s">
         <v>498</v>
       </c>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="20" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <v>12</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="21" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="22" t="s">
         <v>524</v>
       </c>
       <c r="F14" s="17" t="s">
@@ -2446,14 +2456,14 @@
       </c>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
         <v>13</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="17" t="s">
@@ -2467,14 +2477,14 @@
       </c>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
         <v>14</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="17" t="s">
@@ -2488,20 +2498,20 @@
       </c>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
         <v>15</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="21" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="22" t="s">
         <v>525</v>
       </c>
       <c r="F17" s="17" t="s">
@@ -2509,14 +2519,14 @@
       </c>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
         <v>16</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="17" t="s">
@@ -2531,22 +2541,22 @@
       <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:12" ht="20" x14ac:dyDescent="0.2">
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2564,1197 +2574,1197 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>283.14</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <v>1610</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>283.14</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <v>3360</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>283.14999999999998</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>100</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>283.14999999999998</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="8">
         <v>900</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>283.14999999999998</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="8">
         <v>5010</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>283.14999999999998</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="8">
         <v>9940</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>283.14999999999998</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="8">
         <v>14970</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="8" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <v>283.14999999999998</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="8">
         <v>20060</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <v>283.14999999999998</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="8">
         <v>25130</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="11">
+      <c r="B12" s="8">
         <v>283.14999999999998</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="8">
         <v>30210</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="11">
+      <c r="B13" s="8">
         <v>283.14999999999998</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="8">
         <v>40320</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="8" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="11">
+      <c r="B14" s="8">
         <v>283.14999999999998</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="8">
         <v>50070</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="8" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="11">
+      <c r="B15" s="8">
         <v>283.14999999999998</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="8">
         <v>74700</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="8" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="11">
+      <c r="B16" s="8">
         <v>283.14999999999998</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="8">
         <v>100300</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="8" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="11">
+      <c r="B17" s="8">
         <v>283.14999999999998</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="8">
         <v>149400</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="8" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="11">
+      <c r="B18" s="8">
         <v>283.14999999999998</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="8">
         <v>174400</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="8" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="11">
+      <c r="B19" s="8">
         <v>283.14999999999998</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="8">
         <v>200600</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="8" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="11">
+      <c r="B20" s="8">
         <v>283.16000000000003</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="8">
         <v>125200</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="8" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="11">
+      <c r="B21" s="8">
         <v>298.13</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="8">
         <v>24500</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="8" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="11">
+      <c r="B22" s="8">
         <v>298.13</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="8">
         <v>49000</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="11">
+      <c r="B23" s="8">
         <v>298.14999999999998</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="8">
         <v>100</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="8" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="11">
+      <c r="B24" s="8">
         <v>298.14999999999998</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="8">
         <v>1150</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="8" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="11">
+      <c r="B25" s="8">
         <v>298.14999999999998</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="8">
         <v>2090</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="8" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="11">
+      <c r="B26" s="8">
         <v>298.14999999999998</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="8">
         <v>2920</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="8" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="11">
+      <c r="B27" s="8">
         <v>298.14999999999998</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="8">
         <v>4760</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="8" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="11">
+      <c r="B28" s="8">
         <v>298.14999999999998</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="8">
         <v>9890</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="8" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="11">
+      <c r="B29" s="8">
         <v>298.14999999999998</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="8">
         <v>14990</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="8" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="11">
+      <c r="B30" s="8">
         <v>298.14999999999998</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="8">
         <v>19960</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="8" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="11">
+      <c r="B31" s="8">
         <v>298.14999999999998</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="8">
         <v>24510</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="8" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="11">
+      <c r="B32" s="8">
         <v>298.14999999999998</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="8">
         <v>28750</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="8" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="11">
+      <c r="B33" s="8">
         <v>298.14999999999998</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="8">
         <v>40280</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="8" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="11">
+      <c r="B34" s="8">
         <v>298.14999999999998</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="8">
         <v>49150</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="8" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="11">
+      <c r="B35" s="8">
         <v>298.14999999999998</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="8">
         <v>49830</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="8" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="11">
+      <c r="B36" s="8">
         <v>298.14999999999998</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="8">
         <v>70200</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="8" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="11">
+      <c r="B37" s="8">
         <v>298.14999999999998</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="8">
         <v>72100</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="8" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="11">
+      <c r="B38" s="8">
         <v>298.14999999999998</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="8">
         <v>81000</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="8" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="11">
+      <c r="B39" s="8">
         <v>298.14999999999998</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="8">
         <v>92200</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="8" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="11">
+      <c r="B40" s="8">
         <v>298.14999999999998</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="8">
         <v>97900</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="8" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="11">
+      <c r="B41" s="8">
         <v>298.14999999999998</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="8">
         <v>98100</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="8" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="11">
+      <c r="B42" s="8">
         <v>298.14999999999998</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="8">
         <v>122300</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="8" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="11">
+      <c r="B43" s="8">
         <v>298.14999999999998</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="8">
         <v>124900</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="8" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B44" s="11">
+      <c r="B44" s="8">
         <v>298.14999999999998</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="8">
         <v>150700</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="8" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="11">
+      <c r="B45" s="8">
         <v>298.14999999999998</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="8">
         <v>174700</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="8" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B46" s="11">
+      <c r="B46" s="8">
         <v>298.14999999999998</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="8">
         <v>196100</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="8" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B47" s="11">
+      <c r="B47" s="8">
         <v>298.14999999999998</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="8">
         <v>200600</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="8" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B48" s="11">
+      <c r="B48" s="8">
         <v>298.16000000000003</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="8">
         <v>171600</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="8" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="11">
+      <c r="B49" s="8">
         <v>298.17</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="8">
         <v>100</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="8" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="11">
+      <c r="B50" s="8">
         <v>298.17</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="8">
         <v>147100</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="8" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="11">
+      <c r="B51" s="8">
         <v>298.18</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="8">
         <v>73500</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="8" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="11">
+      <c r="B52" s="8">
         <v>323.13</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="8">
         <v>24500</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="8" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="11">
+      <c r="B53" s="8">
         <v>323.13</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="8">
         <v>147100</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="8" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="11">
+      <c r="B54" s="8">
         <v>323.14</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="8">
         <v>100</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="8" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="11">
+      <c r="B55" s="8">
         <v>323.14</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="8">
         <v>48700</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="8" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" s="11">
+      <c r="B56" s="8">
         <v>323.14</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="8">
         <v>73800</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="8" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="11">
+      <c r="B57" s="8">
         <v>323.14</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="8">
         <v>171600</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="8" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="11">
+      <c r="B58" s="8">
         <v>323.14999999999998</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="8">
         <v>100</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="8" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="11">
+      <c r="B59" s="8">
         <v>323.14999999999998</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="8">
         <v>1080</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="8" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="11">
+      <c r="B60" s="8">
         <v>323.14999999999998</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="8">
         <v>2020</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="8" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B61" s="11">
+      <c r="B61" s="8">
         <v>323.14999999999998</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C61" s="8">
         <v>3100</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="8" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B62" s="11">
+      <c r="B62" s="8">
         <v>323.14999999999998</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C62" s="8">
         <v>5080</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="8" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B63" s="11">
+      <c r="B63" s="8">
         <v>323.14999999999998</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C63" s="8">
         <v>10070</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="8" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="11">
+      <c r="B64" s="8">
         <v>323.14999999999998</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C64" s="8">
         <v>15040</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="8" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B65" s="11">
+      <c r="B65" s="8">
         <v>323.14999999999998</v>
       </c>
-      <c r="C65" s="11">
+      <c r="C65" s="8">
         <v>20040</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="8" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B66" s="11">
+      <c r="B66" s="8">
         <v>323.14999999999998</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C66" s="8">
         <v>24990</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="8" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B67" s="11">
+      <c r="B67" s="8">
         <v>323.14999999999998</v>
       </c>
-      <c r="C67" s="11">
+      <c r="C67" s="8">
         <v>30090</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B68" s="11">
+      <c r="B68" s="8">
         <v>323.14999999999998</v>
       </c>
-      <c r="C68" s="11">
+      <c r="C68" s="8">
         <v>40040</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="8" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B69" s="11">
+      <c r="B69" s="8">
         <v>323.14999999999998</v>
       </c>
-      <c r="C69" s="11">
+      <c r="C69" s="8">
         <v>49970</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="8" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B70" s="11">
+      <c r="B70" s="8">
         <v>323.14999999999998</v>
       </c>
-      <c r="C70" s="11">
+      <c r="C70" s="8">
         <v>75200</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="8" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B71" s="11">
+      <c r="B71" s="8">
         <v>323.14999999999998</v>
       </c>
-      <c r="C71" s="11">
+      <c r="C71" s="8">
         <v>100000</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="8" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B72" s="11">
+      <c r="B72" s="8">
         <v>323.14999999999998</v>
       </c>
-      <c r="C72" s="11">
+      <c r="C72" s="8">
         <v>124800</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D72" s="8" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B73" s="11">
+      <c r="B73" s="8">
         <v>323.14999999999998</v>
       </c>
-      <c r="C73" s="11">
+      <c r="C73" s="8">
         <v>150900</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D73" s="8" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B74" s="11">
+      <c r="B74" s="8">
         <v>323.14999999999998</v>
       </c>
-      <c r="C74" s="11">
+      <c r="C74" s="8">
         <v>175100</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="8" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B75" s="11">
+      <c r="B75" s="8">
         <v>323.14999999999998</v>
       </c>
-      <c r="C75" s="11">
+      <c r="C75" s="8">
         <v>201300</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="8" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B76" s="11">
+      <c r="B76" s="8">
         <v>323.14999999999998</v>
       </c>
-      <c r="C76" s="11">
+      <c r="C76" s="8">
         <v>225200</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="D76" s="8" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B77" s="11">
+      <c r="B77" s="8">
         <v>323.14999999999998</v>
       </c>
-      <c r="C77" s="11">
+      <c r="C77" s="8">
         <v>250800</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="8" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B78" s="11">
+      <c r="B78" s="8">
         <v>323.16000000000003</v>
       </c>
-      <c r="C78" s="11">
+      <c r="C78" s="8">
         <v>98100</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="8" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B79" s="11">
+      <c r="B79" s="8">
         <v>323.16000000000003</v>
       </c>
-      <c r="C79" s="11">
+      <c r="C79" s="8">
         <v>196100</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="8" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B80" s="11">
+      <c r="B80" s="8">
         <v>323.17</v>
       </c>
-      <c r="C80" s="11">
+      <c r="C80" s="8">
         <v>122600</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="8" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B81" s="11">
+      <c r="B81" s="8">
         <v>348.13</v>
       </c>
-      <c r="C81" s="11">
+      <c r="C81" s="8">
         <v>49000</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="8" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B82" s="11">
+      <c r="B82" s="8">
         <v>348.14</v>
       </c>
-      <c r="C82" s="11">
+      <c r="C82" s="8">
         <v>100</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="8" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B83" s="11">
+      <c r="B83" s="8">
         <v>348.14</v>
       </c>
-      <c r="C83" s="11">
+      <c r="C83" s="8">
         <v>73500</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="8" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B84" s="11">
+      <c r="B84" s="8">
         <v>348.14</v>
       </c>
-      <c r="C84" s="11">
+      <c r="C84" s="8">
         <v>147100</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="D84" s="8" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B85" s="11">
+      <c r="B85" s="8">
         <v>348.14</v>
       </c>
-      <c r="C85" s="11">
+      <c r="C85" s="8">
         <v>150600</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="8" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B86" s="11">
+      <c r="B86" s="8">
         <v>348.15</v>
       </c>
-      <c r="C86" s="11">
+      <c r="C86" s="8">
         <v>100</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="8" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B87" s="11">
+      <c r="B87" s="8">
         <v>348.15</v>
       </c>
-      <c r="C87" s="11">
+      <c r="C87" s="8">
         <v>1750</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="D87" s="8" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B88" s="11">
+      <c r="B88" s="8">
         <v>348.15</v>
       </c>
-      <c r="C88" s="11">
+      <c r="C88" s="8">
         <v>3120</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="D88" s="8" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B89" s="11">
+      <c r="B89" s="8">
         <v>348.15</v>
       </c>
-      <c r="C89" s="11">
+      <c r="C89" s="8">
         <v>5030</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="D89" s="8" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B90" s="11">
+      <c r="B90" s="8">
         <v>348.15</v>
       </c>
-      <c r="C90" s="11">
+      <c r="C90" s="8">
         <v>9860</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D90" s="8" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B91" s="11">
+      <c r="B91" s="8">
         <v>348.15</v>
       </c>
-      <c r="C91" s="11">
+      <c r="C91" s="8">
         <v>15090</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="8" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B92" s="11">
+      <c r="B92" s="8">
         <v>348.15</v>
       </c>
-      <c r="C92" s="11">
+      <c r="C92" s="8">
         <v>19940</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="D92" s="8" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B93" s="11">
+      <c r="B93" s="8">
         <v>348.15</v>
       </c>
-      <c r="C93" s="11">
+      <c r="C93" s="8">
         <v>25380</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="D93" s="8" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B94" s="11">
+      <c r="B94" s="8">
         <v>348.15</v>
       </c>
-      <c r="C94" s="11">
+      <c r="C94" s="8">
         <v>30090</v>
       </c>
-      <c r="D94" s="11" t="s">
+      <c r="D94" s="8" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B95" s="11">
+      <c r="B95" s="8">
         <v>348.15</v>
       </c>
-      <c r="C95" s="11">
+      <c r="C95" s="8">
         <v>39780</v>
       </c>
-      <c r="D95" s="11" t="s">
+      <c r="D95" s="8" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B96" s="11">
+      <c r="B96" s="8">
         <v>348.15</v>
       </c>
-      <c r="C96" s="11">
+      <c r="C96" s="8">
         <v>49820</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="D96" s="8" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B97" s="11">
+      <c r="B97" s="8">
         <v>348.15</v>
       </c>
-      <c r="C97" s="11">
+      <c r="C97" s="8">
         <v>74900</v>
       </c>
-      <c r="D97" s="11" t="s">
+      <c r="D97" s="8" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B98" s="11">
+      <c r="B98" s="8">
         <v>348.15</v>
       </c>
-      <c r="C98" s="11">
+      <c r="C98" s="8">
         <v>98100</v>
       </c>
-      <c r="D98" s="11" t="s">
+      <c r="D98" s="8" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B99" s="11">
+      <c r="B99" s="8">
         <v>348.15</v>
       </c>
-      <c r="C99" s="11">
+      <c r="C99" s="8">
         <v>100500</v>
       </c>
-      <c r="D99" s="11" t="s">
+      <c r="D99" s="8" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B100" s="11">
+      <c r="B100" s="8">
         <v>348.15</v>
       </c>
-      <c r="C100" s="11">
+      <c r="C100" s="8">
         <v>125100</v>
       </c>
-      <c r="D100" s="11" t="s">
+      <c r="D100" s="8" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B101" s="11">
+      <c r="B101" s="8">
         <v>348.15</v>
       </c>
-      <c r="C101" s="11">
+      <c r="C101" s="8">
         <v>175100</v>
       </c>
-      <c r="D101" s="11" t="s">
+      <c r="D101" s="8" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B102" s="11">
+      <c r="B102" s="8">
         <v>348.15</v>
       </c>
-      <c r="C102" s="11">
+      <c r="C102" s="8">
         <v>200700</v>
       </c>
-      <c r="D102" s="11" t="s">
+      <c r="D102" s="8" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B103" s="11">
+      <c r="B103" s="8">
         <v>348.15</v>
       </c>
-      <c r="C103" s="11">
+      <c r="C103" s="8">
         <v>225500</v>
       </c>
-      <c r="D103" s="11" t="s">
+      <c r="D103" s="8" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B104" s="11">
+      <c r="B104" s="8">
         <v>348.15</v>
       </c>
-      <c r="C104" s="11">
+      <c r="C104" s="8">
         <v>250300</v>
       </c>
-      <c r="D104" s="11" t="s">
+      <c r="D104" s="8" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B105" s="11">
+      <c r="B105" s="8">
         <v>348.16</v>
       </c>
-      <c r="C105" s="11">
+      <c r="C105" s="8">
         <v>1080</v>
       </c>
-      <c r="D105" s="11" t="s">
+      <c r="D105" s="8" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B106" s="11">
+      <c r="B106" s="8">
         <v>348.16</v>
       </c>
-      <c r="C106" s="11">
+      <c r="C106" s="8">
         <v>24500</v>
       </c>
-      <c r="D106" s="11" t="s">
+      <c r="D106" s="8" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B107" s="11">
+      <c r="B107" s="8">
         <v>348.16</v>
       </c>
-      <c r="C107" s="11">
+      <c r="C107" s="8">
         <v>122600</v>
       </c>
-      <c r="D107" s="11" t="s">
+      <c r="D107" s="8" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B108" s="11">
+      <c r="B108" s="8">
         <v>348.17</v>
       </c>
-      <c r="C108" s="11">
+      <c r="C108" s="8">
         <v>171900</v>
       </c>
-      <c r="D108" s="11" t="s">
+      <c r="D108" s="8" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B109" s="11">
+      <c r="B109" s="8">
         <v>348.17</v>
       </c>
-      <c r="C109" s="11">
+      <c r="C109" s="8">
         <v>196100</v>
       </c>
-      <c r="D109" s="11" t="s">
+      <c r="D109" s="8" t="s">
         <v>345</v>
       </c>
     </row>
@@ -3778,812 +3788,812 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>249.1</v>
       </c>
-      <c r="C3" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>251.6</v>
       </c>
-      <c r="C4" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>254.1</v>
       </c>
-      <c r="C5" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>256.5</v>
       </c>
-      <c r="C6" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>258.10000000000002</v>
       </c>
-      <c r="C7" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>259</v>
       </c>
-      <c r="C8" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>261.5</v>
       </c>
-      <c r="C9" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <v>263.10000000000002</v>
       </c>
-      <c r="C10" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <v>264</v>
       </c>
-      <c r="C11" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="11">
+      <c r="B12" s="8">
         <v>266.5</v>
       </c>
-      <c r="C12" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="11">
+      <c r="B13" s="8">
         <v>268.10000000000002</v>
       </c>
-      <c r="C13" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="11">
+      <c r="B14" s="8">
         <v>269</v>
       </c>
-      <c r="C14" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="11">
+      <c r="B15" s="8">
         <v>271.5</v>
       </c>
-      <c r="C15" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="11">
+      <c r="B16" s="8">
         <v>273.10000000000002</v>
       </c>
-      <c r="C16" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="11">
+      <c r="B17" s="8">
         <v>273.89999999999998</v>
       </c>
-      <c r="C17" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="11">
+      <c r="B18" s="8">
         <v>276.39999999999998</v>
       </c>
-      <c r="C18" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="11">
+      <c r="B19" s="8">
         <v>278.10000000000002</v>
       </c>
-      <c r="C19" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="11">
+      <c r="B20" s="8">
         <v>278.89999999999998</v>
       </c>
-      <c r="C20" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="11">
+      <c r="B21" s="8">
         <v>281.39999999999998</v>
       </c>
-      <c r="C21" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="11">
+      <c r="B22" s="8">
         <v>283.10000000000002</v>
       </c>
-      <c r="C22" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="11">
+      <c r="B23" s="8">
         <v>283.89999999999998</v>
       </c>
-      <c r="C23" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="11">
+      <c r="B24" s="8">
         <v>286.39999999999998</v>
       </c>
-      <c r="C24" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="11">
+      <c r="B25" s="8">
         <v>288.10000000000002</v>
       </c>
-      <c r="C25" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="11">
+      <c r="B26" s="8">
         <v>288.5</v>
       </c>
-      <c r="C26" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="11">
+      <c r="B27" s="8">
         <v>288.89999999999998</v>
       </c>
-      <c r="C27" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="C27" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="11">
+      <c r="B28" s="8">
         <v>288.89999999999998</v>
       </c>
-      <c r="C28" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D28" s="11" t="s">
+      <c r="C28" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="11">
+      <c r="B29" s="8">
         <v>288.89999999999998</v>
       </c>
-      <c r="C29" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D29" s="11" t="s">
+      <c r="C29" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="11">
+      <c r="B30" s="8">
         <v>289.5</v>
       </c>
-      <c r="C30" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="C30" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="11">
+      <c r="B31" s="8">
         <v>290.10000000000002</v>
       </c>
-      <c r="C31" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="C31" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="11">
+      <c r="B32" s="8">
         <v>290.7</v>
       </c>
-      <c r="C32" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D32" s="11" t="s">
+      <c r="C32" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="11">
+      <c r="B33" s="8">
         <v>291.3</v>
       </c>
-      <c r="C33" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D33" s="11" t="s">
+      <c r="C33" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="11">
+      <c r="B34" s="8">
         <v>291.3</v>
       </c>
-      <c r="C34" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D34" s="11" t="s">
+      <c r="C34" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="11">
+      <c r="B35" s="8">
         <v>292.60000000000002</v>
       </c>
-      <c r="C35" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D35" s="11" t="s">
+      <c r="C35" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="11">
+      <c r="B36" s="8">
         <v>293.10000000000002</v>
       </c>
-      <c r="C36" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D36" s="11" t="s">
+      <c r="C36" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="11">
+      <c r="B37" s="8">
         <v>293.8</v>
       </c>
-      <c r="C37" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D37" s="11" t="s">
+      <c r="C37" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="11">
+      <c r="B38" s="8">
         <v>293.8</v>
       </c>
-      <c r="C38" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D38" s="11" t="s">
+      <c r="C38" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="11">
+      <c r="B39" s="8">
         <v>295.10000000000002</v>
       </c>
-      <c r="C39" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D39" s="11" t="s">
+      <c r="C39" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="11">
+      <c r="B40" s="8">
         <v>296.3</v>
       </c>
-      <c r="C40" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D40" s="11" t="s">
+      <c r="C40" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="11">
+      <c r="B41" s="8">
         <v>296.3</v>
       </c>
-      <c r="C41" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D41" s="11" t="s">
+      <c r="C41" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="11">
+      <c r="B42" s="8">
         <v>296.8</v>
       </c>
-      <c r="C42" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D42" s="11" t="s">
+      <c r="C42" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="11">
+      <c r="B43" s="8">
         <v>297.8</v>
       </c>
-      <c r="C43" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D43" s="11" t="s">
+      <c r="C43" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B44" s="11">
+      <c r="B44" s="8">
         <v>298.10000000000002</v>
       </c>
-      <c r="C44" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D44" s="11" t="s">
+      <c r="C44" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="11">
+      <c r="B45" s="8">
         <v>298.8</v>
       </c>
-      <c r="C45" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D45" s="11" t="s">
+      <c r="C45" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B46" s="11">
+      <c r="B46" s="8">
         <v>298.8</v>
       </c>
-      <c r="C46" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D46" s="11" t="s">
+      <c r="C46" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B47" s="11">
+      <c r="B47" s="8">
         <v>300</v>
       </c>
-      <c r="C47" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D47" s="11" t="s">
+      <c r="C47" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B48" s="11">
+      <c r="B48" s="8">
         <v>303.10000000000002</v>
       </c>
-      <c r="C48" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D48" s="11" t="s">
+      <c r="C48" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="11">
+      <c r="B49" s="8">
         <v>308.10000000000002</v>
       </c>
-      <c r="C49" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D49" s="11" t="s">
+      <c r="C49" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="11">
+      <c r="B50" s="8">
         <v>313.10000000000002</v>
       </c>
-      <c r="C50" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D50" s="11" t="s">
+      <c r="C50" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="11">
+      <c r="B51" s="8">
         <v>318.10000000000002</v>
       </c>
-      <c r="C51" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D51" s="11" t="s">
+      <c r="C51" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="11">
+      <c r="B52" s="8">
         <v>323.10000000000002</v>
       </c>
-      <c r="C52" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D52" s="11" t="s">
+      <c r="C52" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="11">
+      <c r="B53" s="8">
         <v>328.1</v>
       </c>
-      <c r="C53" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D53" s="11" t="s">
+      <c r="C53" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="11">
+      <c r="B54" s="8">
         <v>333.1</v>
       </c>
-      <c r="C54" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D54" s="11" t="s">
+      <c r="C54" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="11">
+      <c r="B55" s="8">
         <v>338.1</v>
       </c>
-      <c r="C55" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D55" s="11" t="s">
+      <c r="C55" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" s="11">
+      <c r="B56" s="8">
         <v>343.1</v>
       </c>
-      <c r="C56" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D56" s="11" t="s">
+      <c r="C56" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="11">
+      <c r="B57" s="8">
         <v>348.1</v>
       </c>
-      <c r="C57" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D57" s="11" t="s">
+      <c r="C57" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="11">
+      <c r="B58" s="8">
         <v>353.1</v>
       </c>
-      <c r="C58" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D58" s="11" t="s">
+      <c r="C58" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D58" s="8" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="11">
+      <c r="B59" s="8">
         <v>358.1</v>
       </c>
-      <c r="C59" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D59" s="11" t="s">
+      <c r="C59" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="11">
+      <c r="B60" s="8">
         <v>363.1</v>
       </c>
-      <c r="C60" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D60" s="11" t="s">
+      <c r="C60" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B61" s="11">
+      <c r="B61" s="8">
         <v>368.1</v>
       </c>
-      <c r="C61" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D61" s="11" t="s">
+      <c r="C61" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B62" s="11">
+      <c r="B62" s="8">
         <v>373.1</v>
       </c>
-      <c r="C62" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D62" s="11" t="s">
+      <c r="C62" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B63" s="11">
+      <c r="B63" s="8">
         <v>378.1</v>
       </c>
-      <c r="C63" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D63" s="11" t="s">
+      <c r="C63" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D63" s="8" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="11">
+      <c r="B64" s="8">
         <v>383.1</v>
       </c>
-      <c r="C64" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D64" s="11" t="s">
+      <c r="C64" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D64" s="8" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B65" s="11">
+      <c r="B65" s="8">
         <v>388.1</v>
       </c>
-      <c r="C65" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D65" s="11" t="s">
+      <c r="C65" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D65" s="8" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B66" s="11">
+      <c r="B66" s="8">
         <v>393.1</v>
       </c>
-      <c r="C66" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D66" s="11" t="s">
+      <c r="C66" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D66" s="8" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B67" s="11">
+      <c r="B67" s="8">
         <v>398.1</v>
       </c>
-      <c r="C67" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D67" s="11" t="s">
+      <c r="C67" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B68" s="11">
+      <c r="B68" s="8">
         <v>403.1</v>
       </c>
-      <c r="C68" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D68" s="11" t="s">
+      <c r="C68" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D68" s="8" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B69" s="11">
+      <c r="B69" s="8">
         <v>408.1</v>
       </c>
-      <c r="C69" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D69" s="11" t="s">
+      <c r="C69" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D69" s="8" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B70" s="11">
+      <c r="B70" s="8">
         <v>413.1</v>
       </c>
-      <c r="C70" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D70" s="11" t="s">
+      <c r="C70" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D70" s="8" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B71" s="11">
+      <c r="B71" s="8">
         <v>418.1</v>
       </c>
-      <c r="C71" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D71" s="11" t="s">
+      <c r="C71" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D71" s="8" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B72" s="11">
+      <c r="B72" s="8">
         <v>423.1</v>
       </c>
-      <c r="C72" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D72" s="11" t="s">
+      <c r="C72" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B73" s="11">
+      <c r="B73" s="8">
         <v>428.1</v>
       </c>
-      <c r="C73" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D73" s="11" t="s">
+      <c r="C73" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B74" s="11">
+      <c r="B74" s="8">
         <v>433.1</v>
       </c>
-      <c r="C74" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D74" s="11" t="s">
+      <c r="C74" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D74" s="8" t="s">
         <v>417</v>
       </c>
     </row>
@@ -4607,284 +4617,284 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>238.05</v>
       </c>
-      <c r="C3" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>248.05</v>
       </c>
-      <c r="C4" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>258.05</v>
       </c>
-      <c r="C5" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>268.10000000000002</v>
       </c>
-      <c r="C6" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>278.10000000000002</v>
       </c>
-      <c r="C7" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>288.14999999999998</v>
       </c>
-      <c r="C8" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>298.14999999999998</v>
       </c>
-      <c r="C9" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <v>308.14999999999998</v>
       </c>
-      <c r="C10" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <v>318.14999999999998</v>
       </c>
-      <c r="C11" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="11">
+      <c r="B12" s="8">
         <v>328.15</v>
       </c>
-      <c r="C12" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="11">
+      <c r="B13" s="8">
         <v>338.15</v>
       </c>
-      <c r="C13" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="11">
+      <c r="B14" s="8">
         <v>348.15</v>
       </c>
-      <c r="C14" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="11">
+      <c r="B15" s="8">
         <v>358.15</v>
       </c>
-      <c r="C15" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="11">
+      <c r="B16" s="8">
         <v>368.15</v>
       </c>
-      <c r="C16" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="11">
+      <c r="B17" s="8">
         <v>378.15</v>
       </c>
-      <c r="C17" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="11">
+      <c r="B18" s="8">
         <v>388.15</v>
       </c>
-      <c r="C18" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="11">
+      <c r="B19" s="8">
         <v>398.15</v>
       </c>
-      <c r="C19" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="11">
+      <c r="B20" s="8">
         <v>408.15</v>
       </c>
-      <c r="C20" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="11">
+      <c r="B21" s="8">
         <v>418.15</v>
       </c>
-      <c r="C21" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="11">
+      <c r="B22" s="8">
         <v>428.15</v>
       </c>
-      <c r="C22" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="11">
+      <c r="B23" s="8">
         <v>438.15</v>
       </c>
-      <c r="C23" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="11">
+      <c r="B24" s="8">
         <v>448.15</v>
       </c>
-      <c r="C24" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="11">
+      <c r="B25" s="8">
         <v>458.15</v>
       </c>
-      <c r="C25" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="11">
+      <c r="B26" s="8">
         <v>468.15</v>
       </c>
-      <c r="C26" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>442</v>
       </c>
     </row>
@@ -4908,295 +4918,295 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>278.14999999999998</v>
       </c>
-      <c r="C3" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>280.64999999999998</v>
       </c>
-      <c r="C4" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>283.14999999999998</v>
       </c>
-      <c r="C5" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>285.64999999999998</v>
       </c>
-      <c r="C6" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>288.14999999999998</v>
       </c>
-      <c r="C7" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>290.64999999999998</v>
       </c>
-      <c r="C8" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>293.14999999999998</v>
       </c>
-      <c r="C9" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <v>295.64999999999998</v>
       </c>
-      <c r="C10" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <v>298.14999999999998</v>
       </c>
-      <c r="C11" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="11">
+      <c r="B12" s="8">
         <v>300.64999999999998</v>
       </c>
-      <c r="C12" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="11">
+      <c r="B13" s="8">
         <v>303.14999999999998</v>
       </c>
-      <c r="C13" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="11">
+      <c r="B14" s="8">
         <v>305.64999999999998</v>
       </c>
-      <c r="C14" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="11">
+      <c r="B15" s="8">
         <v>308.14999999999998</v>
       </c>
-      <c r="C15" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="11">
+      <c r="B16" s="8">
         <v>310.64999999999998</v>
       </c>
-      <c r="C16" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="11">
+      <c r="B17" s="8">
         <v>313.14999999999998</v>
       </c>
-      <c r="C17" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="11">
+      <c r="B18" s="8">
         <v>315.64999999999998</v>
       </c>
-      <c r="C18" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="11">
+      <c r="B19" s="8">
         <v>318.14999999999998</v>
       </c>
-      <c r="C19" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="11">
+      <c r="B20" s="8">
         <v>320.64999999999998</v>
       </c>
-      <c r="C20" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="11">
+      <c r="B21" s="8">
         <v>323.14999999999998</v>
       </c>
-      <c r="C21" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="11">
+      <c r="B22" s="8">
         <v>325.64999999999998</v>
       </c>
-      <c r="C22" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="11">
+      <c r="B23" s="8">
         <v>328.15</v>
       </c>
-      <c r="C23" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="11">
+      <c r="B24" s="8">
         <v>330.65</v>
       </c>
-      <c r="C24" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="11">
+      <c r="B25" s="8">
         <v>333.15</v>
       </c>
-      <c r="C25" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="11">
+      <c r="B26" s="8">
         <v>335.65</v>
       </c>
-      <c r="C26" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="11">
+      <c r="B27" s="8">
         <v>338.15</v>
       </c>
-      <c r="C27" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="C27" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5220,812 +5230,812 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>249.1</v>
       </c>
-      <c r="C3" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>251.6</v>
       </c>
-      <c r="C4" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>254.1</v>
       </c>
-      <c r="C5" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>256.5</v>
       </c>
-      <c r="C6" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>258.10000000000002</v>
       </c>
-      <c r="C7" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>259</v>
       </c>
-      <c r="C8" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>261.5</v>
       </c>
-      <c r="C9" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <v>263.10000000000002</v>
       </c>
-      <c r="C10" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <v>264</v>
       </c>
-      <c r="C11" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="11">
+      <c r="B12" s="8">
         <v>266.5</v>
       </c>
-      <c r="C12" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="11">
+      <c r="B13" s="8">
         <v>268.10000000000002</v>
       </c>
-      <c r="C13" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="11">
+      <c r="B14" s="8">
         <v>269</v>
       </c>
-      <c r="C14" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="11">
+      <c r="B15" s="8">
         <v>271.5</v>
       </c>
-      <c r="C15" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="11">
+      <c r="B16" s="8">
         <v>273.10000000000002</v>
       </c>
-      <c r="C16" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="11">
+      <c r="B17" s="8">
         <v>273.89999999999998</v>
       </c>
-      <c r="C17" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="11">
+      <c r="B18" s="8">
         <v>276.39999999999998</v>
       </c>
-      <c r="C18" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="11">
+      <c r="B19" s="8">
         <v>278.10000000000002</v>
       </c>
-      <c r="C19" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="11">
+      <c r="B20" s="8">
         <v>278.89999999999998</v>
       </c>
-      <c r="C20" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="11">
+      <c r="B21" s="8">
         <v>281.39999999999998</v>
       </c>
-      <c r="C21" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="11">
+      <c r="B22" s="8">
         <v>283.10000000000002</v>
       </c>
-      <c r="C22" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="11">
+      <c r="B23" s="8">
         <v>283.89999999999998</v>
       </c>
-      <c r="C23" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="11">
+      <c r="B24" s="8">
         <v>286.39999999999998</v>
       </c>
-      <c r="C24" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="11">
+      <c r="B25" s="8">
         <v>288.10000000000002</v>
       </c>
-      <c r="C25" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="11">
+      <c r="B26" s="8">
         <v>288.5</v>
       </c>
-      <c r="C26" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="11">
+      <c r="B27" s="8">
         <v>288.89999999999998</v>
       </c>
-      <c r="C27" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="C27" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="11">
+      <c r="B28" s="8">
         <v>288.89999999999998</v>
       </c>
-      <c r="C28" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D28" s="11" t="s">
+      <c r="C28" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="11">
+      <c r="B29" s="8">
         <v>288.89999999999998</v>
       </c>
-      <c r="C29" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D29" s="11" t="s">
+      <c r="C29" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="11">
+      <c r="B30" s="8">
         <v>289.5</v>
       </c>
-      <c r="C30" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="C30" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="11">
+      <c r="B31" s="8">
         <v>290.10000000000002</v>
       </c>
-      <c r="C31" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="C31" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="11">
+      <c r="B32" s="8">
         <v>290.7</v>
       </c>
-      <c r="C32" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D32" s="11" t="s">
+      <c r="C32" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="11">
+      <c r="B33" s="8">
         <v>291.3</v>
       </c>
-      <c r="C33" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D33" s="11" t="s">
+      <c r="C33" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="11">
+      <c r="B34" s="8">
         <v>291.3</v>
       </c>
-      <c r="C34" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D34" s="11" t="s">
+      <c r="C34" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="11">
+      <c r="B35" s="8">
         <v>292.60000000000002</v>
       </c>
-      <c r="C35" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D35" s="11" t="s">
+      <c r="C35" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="11">
+      <c r="B36" s="8">
         <v>293.10000000000002</v>
       </c>
-      <c r="C36" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D36" s="11" t="s">
+      <c r="C36" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="11">
+      <c r="B37" s="8">
         <v>293.8</v>
       </c>
-      <c r="C37" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D37" s="11" t="s">
+      <c r="C37" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="11">
+      <c r="B38" s="8">
         <v>293.8</v>
       </c>
-      <c r="C38" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D38" s="11" t="s">
+      <c r="C38" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="11">
+      <c r="B39" s="8">
         <v>295.10000000000002</v>
       </c>
-      <c r="C39" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D39" s="11" t="s">
+      <c r="C39" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="11">
+      <c r="B40" s="8">
         <v>296.3</v>
       </c>
-      <c r="C40" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D40" s="11" t="s">
+      <c r="C40" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="11">
+      <c r="B41" s="8">
         <v>296.3</v>
       </c>
-      <c r="C41" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D41" s="11" t="s">
+      <c r="C41" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="11">
+      <c r="B42" s="8">
         <v>296.8</v>
       </c>
-      <c r="C42" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D42" s="11" t="s">
+      <c r="C42" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="11">
+      <c r="B43" s="8">
         <v>297.8</v>
       </c>
-      <c r="C43" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D43" s="11" t="s">
+      <c r="C43" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B44" s="11">
+      <c r="B44" s="8">
         <v>298.10000000000002</v>
       </c>
-      <c r="C44" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D44" s="11" t="s">
+      <c r="C44" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="11">
+      <c r="B45" s="8">
         <v>298.8</v>
       </c>
-      <c r="C45" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D45" s="11" t="s">
+      <c r="C45" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B46" s="11">
+      <c r="B46" s="8">
         <v>298.8</v>
       </c>
-      <c r="C46" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D46" s="11" t="s">
+      <c r="C46" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B47" s="11">
+      <c r="B47" s="8">
         <v>300</v>
       </c>
-      <c r="C47" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D47" s="11" t="s">
+      <c r="C47" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B48" s="11">
+      <c r="B48" s="8">
         <v>303.10000000000002</v>
       </c>
-      <c r="C48" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D48" s="11" t="s">
+      <c r="C48" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="11">
+      <c r="B49" s="8">
         <v>308.10000000000002</v>
       </c>
-      <c r="C49" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D49" s="11" t="s">
+      <c r="C49" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="11">
+      <c r="B50" s="8">
         <v>313.10000000000002</v>
       </c>
-      <c r="C50" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D50" s="11" t="s">
+      <c r="C50" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="11">
+      <c r="B51" s="8">
         <v>318.10000000000002</v>
       </c>
-      <c r="C51" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D51" s="11" t="s">
+      <c r="C51" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="11">
+      <c r="B52" s="8">
         <v>323.10000000000002</v>
       </c>
-      <c r="C52" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D52" s="11" t="s">
+      <c r="C52" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="11">
+      <c r="B53" s="8">
         <v>328.1</v>
       </c>
-      <c r="C53" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D53" s="11" t="s">
+      <c r="C53" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="11">
+      <c r="B54" s="8">
         <v>333.1</v>
       </c>
-      <c r="C54" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D54" s="11" t="s">
+      <c r="C54" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="11">
+      <c r="B55" s="8">
         <v>338.1</v>
       </c>
-      <c r="C55" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D55" s="11" t="s">
+      <c r="C55" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" s="11">
+      <c r="B56" s="8">
         <v>343.1</v>
       </c>
-      <c r="C56" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D56" s="11" t="s">
+      <c r="C56" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="11">
+      <c r="B57" s="8">
         <v>348.1</v>
       </c>
-      <c r="C57" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D57" s="11" t="s">
+      <c r="C57" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="11">
+      <c r="B58" s="8">
         <v>353.1</v>
       </c>
-      <c r="C58" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D58" s="11" t="s">
+      <c r="C58" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D58" s="8" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="11">
+      <c r="B59" s="8">
         <v>358.1</v>
       </c>
-      <c r="C59" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D59" s="11" t="s">
+      <c r="C59" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="11">
+      <c r="B60" s="8">
         <v>363.1</v>
       </c>
-      <c r="C60" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D60" s="11" t="s">
+      <c r="C60" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B61" s="11">
+      <c r="B61" s="8">
         <v>368.1</v>
       </c>
-      <c r="C61" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D61" s="11" t="s">
+      <c r="C61" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B62" s="11">
+      <c r="B62" s="8">
         <v>373.1</v>
       </c>
-      <c r="C62" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D62" s="11" t="s">
+      <c r="C62" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B63" s="11">
+      <c r="B63" s="8">
         <v>378.1</v>
       </c>
-      <c r="C63" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D63" s="11" t="s">
+      <c r="C63" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D63" s="8" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="11">
+      <c r="B64" s="8">
         <v>383.1</v>
       </c>
-      <c r="C64" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D64" s="11" t="s">
+      <c r="C64" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D64" s="8" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B65" s="11">
+      <c r="B65" s="8">
         <v>388.1</v>
       </c>
-      <c r="C65" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D65" s="11" t="s">
+      <c r="C65" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D65" s="8" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B66" s="11">
+      <c r="B66" s="8">
         <v>393.1</v>
       </c>
-      <c r="C66" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D66" s="11" t="s">
+      <c r="C66" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D66" s="8" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B67" s="11">
+      <c r="B67" s="8">
         <v>398.1</v>
       </c>
-      <c r="C67" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D67" s="11" t="s">
+      <c r="C67" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B68" s="11">
+      <c r="B68" s="8">
         <v>403.1</v>
       </c>
-      <c r="C68" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D68" s="11" t="s">
+      <c r="C68" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D68" s="8" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B69" s="11">
+      <c r="B69" s="8">
         <v>408.1</v>
       </c>
-      <c r="C69" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D69" s="11" t="s">
+      <c r="C69" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D69" s="8" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B70" s="11">
+      <c r="B70" s="8">
         <v>413.1</v>
       </c>
-      <c r="C70" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D70" s="11" t="s">
+      <c r="C70" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D70" s="8" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B71" s="11">
+      <c r="B71" s="8">
         <v>418.1</v>
       </c>
-      <c r="C71" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D71" s="11" t="s">
+      <c r="C71" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D71" s="8" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B72" s="11">
+      <c r="B72" s="8">
         <v>423.1</v>
       </c>
-      <c r="C72" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D72" s="11" t="s">
+      <c r="C72" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B73" s="11">
+      <c r="B73" s="8">
         <v>428.1</v>
       </c>
-      <c r="C73" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D73" s="11" t="s">
+      <c r="C73" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B74" s="11">
+      <c r="B74" s="8">
         <v>433.1</v>
       </c>
-      <c r="C74" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D74" s="11" t="s">
+      <c r="C74" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D74" s="8" t="s">
         <v>417</v>
       </c>
     </row>
@@ -6049,284 +6059,284 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>238.05</v>
       </c>
-      <c r="C3" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>248.05</v>
       </c>
-      <c r="C4" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>258.05</v>
       </c>
-      <c r="C5" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>268.10000000000002</v>
       </c>
-      <c r="C6" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>278.10000000000002</v>
       </c>
-      <c r="C7" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>288.14999999999998</v>
       </c>
-      <c r="C8" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>298.14999999999998</v>
       </c>
-      <c r="C9" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <v>308.14999999999998</v>
       </c>
-      <c r="C10" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <v>318.14999999999998</v>
       </c>
-      <c r="C11" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="11">
+      <c r="B12" s="8">
         <v>328.15</v>
       </c>
-      <c r="C12" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="11">
+      <c r="B13" s="8">
         <v>338.15</v>
       </c>
-      <c r="C13" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="11">
+      <c r="B14" s="8">
         <v>348.15</v>
       </c>
-      <c r="C14" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="11">
+      <c r="B15" s="8">
         <v>358.15</v>
       </c>
-      <c r="C15" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="11">
+      <c r="B16" s="8">
         <v>368.15</v>
       </c>
-      <c r="C16" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="11">
+      <c r="B17" s="8">
         <v>378.15</v>
       </c>
-      <c r="C17" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="11">
+      <c r="B18" s="8">
         <v>388.15</v>
       </c>
-      <c r="C18" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="11">
+      <c r="B19" s="8">
         <v>398.15</v>
       </c>
-      <c r="C19" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="11">
+      <c r="B20" s="8">
         <v>408.15</v>
       </c>
-      <c r="C20" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="11">
+      <c r="B21" s="8">
         <v>418.15</v>
       </c>
-      <c r="C21" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="11">
+      <c r="B22" s="8">
         <v>428.15</v>
       </c>
-      <c r="C22" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="11">
+      <c r="B23" s="8">
         <v>438.15</v>
       </c>
-      <c r="C23" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="11">
+      <c r="B24" s="8">
         <v>448.15</v>
       </c>
-      <c r="C24" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="11">
+      <c r="B25" s="8">
         <v>458.15</v>
       </c>
-      <c r="C25" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="11">
+      <c r="B26" s="8">
         <v>468.15</v>
       </c>
-      <c r="C26" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>442</v>
       </c>
     </row>
@@ -6350,284 +6360,284 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>238.05</v>
       </c>
-      <c r="C3" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>248.05</v>
       </c>
-      <c r="C4" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>258.05</v>
       </c>
-      <c r="C5" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>268.10000000000002</v>
       </c>
-      <c r="C6" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>278.10000000000002</v>
       </c>
-      <c r="C7" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>288.14999999999998</v>
       </c>
-      <c r="C8" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>298.14999999999998</v>
       </c>
-      <c r="C9" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <v>308.14999999999998</v>
       </c>
-      <c r="C10" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <v>318.14999999999998</v>
       </c>
-      <c r="C11" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="11">
+      <c r="B12" s="8">
         <v>328.15</v>
       </c>
-      <c r="C12" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="11">
+      <c r="B13" s="8">
         <v>338.15</v>
       </c>
-      <c r="C13" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="11">
+      <c r="B14" s="8">
         <v>348.15</v>
       </c>
-      <c r="C14" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="11">
+      <c r="B15" s="8">
         <v>358.15</v>
       </c>
-      <c r="C15" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="11">
+      <c r="B16" s="8">
         <v>368.15</v>
       </c>
-      <c r="C16" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="11">
+      <c r="B17" s="8">
         <v>378.15</v>
       </c>
-      <c r="C17" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="11">
+      <c r="B18" s="8">
         <v>388.15</v>
       </c>
-      <c r="C18" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="11">
+      <c r="B19" s="8">
         <v>398.15</v>
       </c>
-      <c r="C19" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="11">
+      <c r="B20" s="8">
         <v>408.15</v>
       </c>
-      <c r="C20" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="11">
+      <c r="B21" s="8">
         <v>418.15</v>
       </c>
-      <c r="C21" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="11">
+      <c r="B22" s="8">
         <v>428.15</v>
       </c>
-      <c r="C22" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="11">
+      <c r="B23" s="8">
         <v>438.15</v>
       </c>
-      <c r="C23" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="11">
+      <c r="B24" s="8">
         <v>448.15</v>
       </c>
-      <c r="C24" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="11">
+      <c r="B25" s="8">
         <v>458.15</v>
       </c>
-      <c r="C25" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="11">
+      <c r="B26" s="8">
         <v>468.15</v>
       </c>
-      <c r="C26" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>489</v>
       </c>
     </row>
@@ -6656,618 +6666,618 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>298.14999999999998</v>
       </c>
-      <c r="C2" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>299.14999999999998</v>
       </c>
-      <c r="C3" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>300.14999999999998</v>
       </c>
-      <c r="C4" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>301.14999999999998</v>
       </c>
-      <c r="C5" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>302.14999999999998</v>
       </c>
-      <c r="C6" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>303.14999999999998</v>
       </c>
-      <c r="C7" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>304.14999999999998</v>
       </c>
-      <c r="C8" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>305.14999999999998</v>
       </c>
-      <c r="C9" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>306.14999999999998</v>
       </c>
-      <c r="C10" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>307.14999999999998</v>
       </c>
-      <c r="C11" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>308.14999999999998</v>
       </c>
-      <c r="C12" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>309.14999999999998</v>
       </c>
-      <c r="C13" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>310.14999999999998</v>
       </c>
-      <c r="C14" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>311.14999999999998</v>
       </c>
-      <c r="C15" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>312.14999999999998</v>
       </c>
-      <c r="C16" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>313.14999999999998</v>
       </c>
-      <c r="C17" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>314.14999999999998</v>
       </c>
-      <c r="C18" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>315.14999999999998</v>
       </c>
-      <c r="C19" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>316.14999999999998</v>
       </c>
-      <c r="C20" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>317.14999999999998</v>
       </c>
-      <c r="C21" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>318.14999999999998</v>
       </c>
-      <c r="C22" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>319.14999999999998</v>
       </c>
-      <c r="C23" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>320.14999999999998</v>
       </c>
-      <c r="C24" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>321.14999999999998</v>
       </c>
-      <c r="C25" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>322.14999999999998</v>
       </c>
-      <c r="C26" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>323.14999999999998</v>
       </c>
-      <c r="C27" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>324.14999999999998</v>
       </c>
-      <c r="C28" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>325.14999999999998</v>
       </c>
-      <c r="C29" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="C29" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>326.14999999999998</v>
       </c>
-      <c r="C30" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="C30" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>327.14999999999998</v>
       </c>
-      <c r="C31" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="C31" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>328.15</v>
       </c>
-      <c r="C32" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="C32" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>329.15</v>
       </c>
-      <c r="C33" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="C33" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>330.15</v>
       </c>
-      <c r="C34" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="C34" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>331.15</v>
       </c>
-      <c r="C35" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D35" s="5" t="s">
+      <c r="C35" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>332.15</v>
       </c>
-      <c r="C36" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="C36" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>333.15</v>
       </c>
-      <c r="C37" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="C37" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>334.15</v>
       </c>
-      <c r="C38" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D38" s="5" t="s">
+      <c r="C38" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>335.15</v>
       </c>
-      <c r="C39" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="C39" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>336.15</v>
       </c>
-      <c r="C40" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D40" s="5" t="s">
+      <c r="C40" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>337.15</v>
       </c>
-      <c r="C41" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="C41" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <v>338.15</v>
       </c>
-      <c r="C42" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="C42" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="5">
+      <c r="B43" s="4">
         <v>339.15</v>
       </c>
-      <c r="C43" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="C43" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B44" s="5">
+      <c r="B44" s="4">
         <v>340.15</v>
       </c>
-      <c r="C44" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D44" s="5" t="s">
+      <c r="C44" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="5">
+      <c r="B45" s="4">
         <v>341.15</v>
       </c>
-      <c r="C45" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D45" s="5" t="s">
+      <c r="C45" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <v>342.15</v>
       </c>
-      <c r="C46" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D46" s="5" t="s">
+      <c r="C46" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <v>343.15</v>
       </c>
-      <c r="C47" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D47" s="5" t="s">
+      <c r="C47" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B48" s="5">
+      <c r="B48" s="4">
         <v>344.15</v>
       </c>
-      <c r="C48" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D48" s="5" t="s">
+      <c r="C48" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="5">
+      <c r="B49" s="4">
         <v>345.15</v>
       </c>
-      <c r="C49" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D49" s="5" t="s">
+      <c r="C49" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="5">
+      <c r="B50" s="4">
         <v>346.15</v>
       </c>
-      <c r="C50" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D50" s="5" t="s">
+      <c r="C50" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="5">
+      <c r="B51" s="4">
         <v>347.15</v>
       </c>
-      <c r="C51" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D51" s="5" t="s">
+      <c r="C51" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="5">
+      <c r="B52" s="4">
         <v>348.15</v>
       </c>
-      <c r="C52" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D52" s="5" t="s">
+      <c r="C52" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="5">
+      <c r="B53" s="4">
         <v>349.15</v>
       </c>
-      <c r="C53" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D53" s="5" t="s">
+      <c r="C53" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="5">
+      <c r="B54" s="4">
         <v>350.15</v>
       </c>
-      <c r="C54" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D54" s="5" t="s">
+      <c r="C54" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="5">
+      <c r="B55" s="4">
         <v>351.15</v>
       </c>
-      <c r="C55" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D55" s="5" t="s">
+      <c r="C55" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" s="5">
+      <c r="B56" s="4">
         <v>352.15</v>
       </c>
-      <c r="C56" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D56" s="5" t="s">
+      <c r="C56" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="5">
+      <c r="B57" s="4">
         <v>353.15</v>
       </c>
-      <c r="C57" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D57" s="5" t="s">
+      <c r="C57" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -7287,284 +7297,284 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>258.10000000000002</v>
       </c>
-      <c r="C3" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>263.10000000000002</v>
       </c>
-      <c r="C4" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>268.10000000000002</v>
       </c>
-      <c r="C5" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>273.10000000000002</v>
       </c>
-      <c r="C6" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>278.10000000000002</v>
       </c>
-      <c r="C7" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>283.10000000000002</v>
       </c>
-      <c r="C8" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>288.10000000000002</v>
       </c>
-      <c r="C9" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>293.10000000000002</v>
       </c>
-      <c r="C10" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>298.10000000000002</v>
       </c>
-      <c r="C11" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>303.10000000000002</v>
       </c>
-      <c r="C12" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>308.10000000000002</v>
       </c>
-      <c r="C13" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>313.10000000000002</v>
       </c>
-      <c r="C14" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>318.10000000000002</v>
       </c>
-      <c r="C15" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>323.10000000000002</v>
       </c>
-      <c r="C16" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>328.1</v>
       </c>
-      <c r="C17" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>333.1</v>
       </c>
-      <c r="C18" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>338.1</v>
       </c>
-      <c r="C19" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>343.1</v>
       </c>
-      <c r="C20" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>348.1</v>
       </c>
-      <c r="C21" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>353.1</v>
       </c>
-      <c r="C22" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>358.1</v>
       </c>
-      <c r="C23" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>363.1</v>
       </c>
-      <c r="C24" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>368.1</v>
       </c>
-      <c r="C25" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>373.1</v>
       </c>
-      <c r="C26" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>166</v>
       </c>
     </row>
@@ -7588,141 +7598,141 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>303.2</v>
       </c>
-      <c r="C3" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>308.2</v>
       </c>
-      <c r="C4" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>313.2</v>
       </c>
-      <c r="C5" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>318.2</v>
       </c>
-      <c r="C6" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>323.2</v>
       </c>
-      <c r="C7" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>328.2</v>
       </c>
-      <c r="C8" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>333.2</v>
       </c>
-      <c r="C9" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>338.2</v>
       </c>
-      <c r="C10" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>343.2</v>
       </c>
-      <c r="C11" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>348.2</v>
       </c>
-      <c r="C12" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>353.2</v>
       </c>
-      <c r="C13" s="5">
-        <v>101.325</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7746,174 +7756,174 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>303.14999999999998</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <v>101</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>308.14999999999998</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <v>101</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>313.14999999999998</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>101</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>318.14999999999998</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="8">
         <v>101</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>323.14999999999998</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="8">
         <v>101</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>328.15</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="8">
         <v>101</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>333.15</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="8">
         <v>101</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="8" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <v>338.15</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="8">
         <v>101</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <v>343.15</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="8">
         <v>101</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="11">
+      <c r="B12" s="8">
         <v>348.15</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="8">
         <v>101</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="11">
+      <c r="B13" s="8">
         <v>353.15</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="8">
         <v>101</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="11">
+      <c r="B14" s="8">
         <v>358.15</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="8">
         <v>101</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="8" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="11">
+      <c r="B15" s="8">
         <v>363.15</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="8">
         <v>101</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="8" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="11">
+      <c r="B16" s="8">
         <v>368.15</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="8">
         <v>101</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="8" t="s">
         <v>190</v>
       </c>
     </row>
@@ -7937,284 +7947,284 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>258.10000000000002</v>
       </c>
-      <c r="C3" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>263.10000000000002</v>
       </c>
-      <c r="C4" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>268.10000000000002</v>
       </c>
-      <c r="C5" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>273.10000000000002</v>
       </c>
-      <c r="C6" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>278.10000000000002</v>
       </c>
-      <c r="C7" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>283.10000000000002</v>
       </c>
-      <c r="C8" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>288.10000000000002</v>
       </c>
-      <c r="C9" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <v>293.10000000000002</v>
       </c>
-      <c r="C10" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <v>298.10000000000002</v>
       </c>
-      <c r="C11" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="11">
+      <c r="B12" s="8">
         <v>303.10000000000002</v>
       </c>
-      <c r="C12" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="11">
+      <c r="B13" s="8">
         <v>308.10000000000002</v>
       </c>
-      <c r="C13" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="11">
+      <c r="B14" s="8">
         <v>313.10000000000002</v>
       </c>
-      <c r="C14" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="11">
+      <c r="B15" s="8">
         <v>318.10000000000002</v>
       </c>
-      <c r="C15" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="11">
+      <c r="B16" s="8">
         <v>323.10000000000002</v>
       </c>
-      <c r="C16" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="11">
+      <c r="B17" s="8">
         <v>328.1</v>
       </c>
-      <c r="C17" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="11">
+      <c r="B18" s="8">
         <v>333.1</v>
       </c>
-      <c r="C18" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="11">
+      <c r="B19" s="8">
         <v>338.1</v>
       </c>
-      <c r="C19" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="11">
+      <c r="B20" s="8">
         <v>343.1</v>
       </c>
-      <c r="C20" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="11">
+      <c r="B21" s="8">
         <v>348.1</v>
       </c>
-      <c r="C21" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="11">
+      <c r="B22" s="8">
         <v>353.1</v>
       </c>
-      <c r="C22" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="11">
+      <c r="B23" s="8">
         <v>358.1</v>
       </c>
-      <c r="C23" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="11">
+      <c r="B24" s="8">
         <v>363.1</v>
       </c>
-      <c r="C24" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="11">
+      <c r="B25" s="8">
         <v>368.1</v>
       </c>
-      <c r="C25" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="11">
+      <c r="B26" s="8">
         <v>373.1</v>
       </c>
-      <c r="C26" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>166</v>
       </c>
     </row>
@@ -8238,119 +8248,119 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>284.14999999999998</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <v>100</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>293.14999999999998</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <v>100</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>298.14999999999998</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>100</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>304.14999999999998</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="8">
         <v>100</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>313.14999999999998</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="8">
         <v>100</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>323.14999999999998</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="8">
         <v>100</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>333.15</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="8">
         <v>100</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="8" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <v>344.95</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="8">
         <v>100</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <v>353.65</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="8">
         <v>100</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -8374,416 +8384,416 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>258.10000000000002</v>
       </c>
-      <c r="C3" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>263.10000000000002</v>
       </c>
-      <c r="C4" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>268.10000000000002</v>
       </c>
-      <c r="C5" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>273.10000000000002</v>
       </c>
-      <c r="C6" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>278.10000000000002</v>
       </c>
-      <c r="C7" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>283.10000000000002</v>
       </c>
-      <c r="C8" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>288.10000000000002</v>
       </c>
-      <c r="C9" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <v>293.10000000000002</v>
       </c>
-      <c r="C10" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <v>298.10000000000002</v>
       </c>
-      <c r="C11" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="11">
+      <c r="B12" s="8">
         <v>303.10000000000002</v>
       </c>
-      <c r="C12" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="11">
+      <c r="B13" s="8">
         <v>308.10000000000002</v>
       </c>
-      <c r="C13" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="11">
+      <c r="B14" s="8">
         <v>313.10000000000002</v>
       </c>
-      <c r="C14" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="11">
+      <c r="B15" s="8">
         <v>318.10000000000002</v>
       </c>
-      <c r="C15" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="11">
+      <c r="B16" s="8">
         <v>323.10000000000002</v>
       </c>
-      <c r="C16" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="11">
+      <c r="B17" s="8">
         <v>328.1</v>
       </c>
-      <c r="C17" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="11">
+      <c r="B18" s="8">
         <v>333.1</v>
       </c>
-      <c r="C18" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="11">
+      <c r="B19" s="8">
         <v>338.1</v>
       </c>
-      <c r="C19" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="11">
+      <c r="B20" s="8">
         <v>343.1</v>
       </c>
-      <c r="C20" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="11">
+      <c r="B21" s="8">
         <v>348.1</v>
       </c>
-      <c r="C21" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="11">
+      <c r="B22" s="8">
         <v>353.1</v>
       </c>
-      <c r="C22" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="11">
+      <c r="B23" s="8">
         <v>358.1</v>
       </c>
-      <c r="C23" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="11">
+      <c r="B24" s="8">
         <v>363.1</v>
       </c>
-      <c r="C24" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="11">
+      <c r="B25" s="8">
         <v>368.1</v>
       </c>
-      <c r="C25" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="11">
+      <c r="B26" s="8">
         <v>373.1</v>
       </c>
-      <c r="C26" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="11">
+      <c r="B27" s="8">
         <v>378.1</v>
       </c>
-      <c r="C27" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="C27" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="11">
+      <c r="B28" s="8">
         <v>383.1</v>
       </c>
-      <c r="C28" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D28" s="11" t="s">
+      <c r="C28" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="11">
+      <c r="B29" s="8">
         <v>388.1</v>
       </c>
-      <c r="C29" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D29" s="11" t="s">
+      <c r="C29" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="11">
+      <c r="B30" s="8">
         <v>393.1</v>
       </c>
-      <c r="C30" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="C30" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="11">
+      <c r="B31" s="8">
         <v>398.1</v>
       </c>
-      <c r="C31" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="C31" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="11">
+      <c r="B32" s="8">
         <v>403.1</v>
       </c>
-      <c r="C32" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D32" s="11" t="s">
+      <c r="C32" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="11">
+      <c r="B33" s="8">
         <v>408.1</v>
       </c>
-      <c r="C33" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D33" s="11" t="s">
+      <c r="C33" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="11">
+      <c r="B34" s="8">
         <v>413.1</v>
       </c>
-      <c r="C34" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D34" s="11" t="s">
+      <c r="C34" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="11">
+      <c r="B35" s="8">
         <v>418.1</v>
       </c>
-      <c r="C35" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D35" s="11" t="s">
+      <c r="C35" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="11">
+      <c r="B36" s="8">
         <v>423.1</v>
       </c>
-      <c r="C36" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D36" s="11" t="s">
+      <c r="C36" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="11">
+      <c r="B37" s="8">
         <v>428.1</v>
       </c>
-      <c r="C37" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D37" s="11" t="s">
+      <c r="C37" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="11">
+      <c r="B38" s="8">
         <v>433.1</v>
       </c>
-      <c r="C38" s="11">
-        <v>101.325</v>
-      </c>
-      <c r="D38" s="11" t="s">
+      <c r="C38" s="8">
+        <v>101.325</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>232</v>
       </c>
     </row>
@@ -8807,36 +8817,36 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="13">
+      <c r="B2" s="10">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="10">
         <v>284.18</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="2:6" ht="20" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -8844,597 +8854,597 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="12" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="13">
+      <c r="B9" s="10">
         <v>298.13</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="10">
         <v>58800</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="13">
+      <c r="B10" s="10">
         <v>298.13</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="10">
         <v>78500</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="13">
+      <c r="B11" s="10">
         <v>298.13</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="10">
         <v>98100</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="13">
+      <c r="B12" s="10">
         <v>298.14</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="10">
         <v>100</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="13">
+      <c r="B13" s="10">
         <v>298.14</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="10">
         <v>39200</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="13">
+      <c r="B14" s="10">
         <v>298.14999999999998</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="10">
         <v>100</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="13">
+      <c r="B15" s="10">
         <v>298.14999999999998</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="10">
         <v>100</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="13">
+      <c r="B16" s="10">
         <v>298.14999999999998</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="10">
         <v>19600</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="13">
+      <c r="B17" s="10">
         <v>298.14999999999998</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="10">
         <v>24500</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="13">
+      <c r="B18" s="10">
         <v>298.14999999999998</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="10">
         <v>98100</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="13">
+      <c r="B19" s="10">
         <v>298.16000000000003</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="10">
         <v>100</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="13">
+      <c r="B20" s="10">
         <v>298.16000000000003</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="10">
         <v>49000</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="13">
+      <c r="B21" s="10">
         <v>298.16000000000003</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="10">
         <v>49000</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="13">
+      <c r="B22" s="10">
         <v>298.16000000000003</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="10">
         <v>73500</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="13">
+      <c r="B23" s="10">
         <v>298.17</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="10">
         <v>100</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="13">
+      <c r="B24" s="10">
         <v>308.14999999999998</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="10">
         <v>100</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="13">
+      <c r="B25" s="10">
         <v>318.14999999999998</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="10">
         <v>100</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="13">
+      <c r="B26" s="10">
         <v>323.10000000000002</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="10">
         <v>100</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="13">
+      <c r="B27" s="10">
         <v>323.12</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="10">
         <v>147100</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="13">
+      <c r="B28" s="10">
         <v>323.12</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="10">
         <v>147100</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="13">
+      <c r="B29" s="10">
         <v>323.13</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="10">
         <v>171600</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="13">
+      <c r="B30" s="10">
         <v>323.14</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="10">
         <v>49000</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="13">
+      <c r="B31" s="10">
         <v>323.14</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="10">
         <v>73500</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="13">
+      <c r="B32" s="10">
         <v>323.14</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="10">
         <v>98100</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="13">
+      <c r="B33" s="10">
         <v>323.14</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="10">
         <v>122600</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="13">
+      <c r="B34" s="10">
         <v>323.14</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="10">
         <v>122600</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="13">
+      <c r="B35" s="10">
         <v>323.14</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="10">
         <v>196100</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="13">
+      <c r="B36" s="10">
         <v>323.14999999999998</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="10">
         <v>100</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="13">
+      <c r="B37" s="10">
         <v>323.14999999999998</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="10">
         <v>49000</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="13">
+      <c r="B38" s="10">
         <v>323.14999999999998</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="10">
         <v>73500</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="13">
+      <c r="B39" s="10">
         <v>323.14999999999998</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="10">
         <v>171600</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="13">
+      <c r="B40" s="10">
         <v>323.14999999999998</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="10">
         <v>196100</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="13">
+      <c r="B41" s="10">
         <v>323.16000000000003</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="10">
         <v>100</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="13">
+      <c r="B42" s="10">
         <v>323.16000000000003</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="10">
         <v>24500</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="13">
+      <c r="B43" s="10">
         <v>323.17</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="10">
         <v>98100</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B44" s="13">
+      <c r="B44" s="10">
         <v>323.29000000000002</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="10">
         <v>24500</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="10" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="13">
+      <c r="B45" s="10">
         <v>328.17</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="10">
         <v>100</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B46" s="13">
+      <c r="B46" s="10">
         <v>333.15</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="10">
         <v>100</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B47" s="13">
+      <c r="B47" s="10">
         <v>338.15</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="10">
         <v>100</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B48" s="13">
+      <c r="B48" s="10">
         <v>343.13</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="10">
         <v>98100</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="13">
+      <c r="B49" s="10">
         <v>343.14</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="10">
         <v>100</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="13">
+      <c r="B50" s="10">
         <v>343.14</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="10">
         <v>122900</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="13">
+      <c r="B51" s="10">
         <v>343.14</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="10">
         <v>171600</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="13">
+      <c r="B52" s="10">
         <v>343.15</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="10">
         <v>49000</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="13">
+      <c r="B53" s="10">
         <v>343.15</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="10">
         <v>73500</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="13">
+      <c r="B54" s="10">
         <v>343.16</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="10">
         <v>100</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="13">
+      <c r="B55" s="10">
         <v>343.16</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="10">
         <v>24500</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" s="13">
+      <c r="B56" s="10">
         <v>343.16</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C56" s="10">
         <v>147100</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="13">
+      <c r="B57" s="10">
         <v>343.16</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="10">
         <v>196100</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="13">
+      <c r="B58" s="10">
         <v>348.15</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="10">
         <v>100</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="13">
+      <c r="B59" s="10">
         <v>353.12</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59" s="10">
         <v>100</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="10" t="s">
         <v>78</v>
       </c>
     </row>
